--- a/biology/Botanique/Nematochrysidaceae/Nematochrysidaceae.xlsx
+++ b/biology/Botanique/Nematochrysidaceae/Nematochrysidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Nematochrysidaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae mais dont le rattachement à un ordre est selon AlgaeBase                                           (4 février 2022)[1] encore incertain Incertae sedis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Nematochrysidaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae mais dont le rattachement à un ordre est selon AlgaeBase                                           (4 février 2022) encore incertain Incertae sedis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Nematochrysis,  dérivé du grec νημα / nèma ou νηματος / nèmatos, « fil ; semblable à des fils », et de χρυσός / khrusos, « couleur or »,  littéralement « fil d'or », en référence au thalle filamenteux de cette algue.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Nematochrysis ont un thalle en forme de filament unisérié non ramifié, fixé avec une cellule basale incolore à un substratum. Cellules cylindriques à un ou deux chloroplastes. Les essaims sont biflagellés de type Ochromonas, formés directement à partir d'un protoplaste. Ils ont un stigmate, mais pas de vacuoles contractiles[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Nematochrysis ont un thalle en forme de filament unisérié non ramifié, fixé avec une cellule basale incolore à un substratum. Cellules cylindriques à un ou deux chloroplastes. Les essaims sont biflagellés de type Ochromonas, formés directement à partir d'un protoplaste. Ils ont un stigmate, mais pas de vacuoles contractiles. 
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce, le Nematochrysis hieroglyphia Waern, a été transférée dans le genre Chrysowaernella (Chrysomeridaceae).
-World Register of Marine Species                               (4 février 2022)[2] place le genre Nematochrysis dans la famille des Phaeothamniaceae. 
+World Register of Marine Species                               (4 février 2022) place le genre Nematochrysis dans la famille des Phaeothamniaceae. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (4 février 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (4 février 2022) :
 Chrysothrix  Pascher, 1914, nom. illeg.
 Nematochrysis  Pascher, 1925</t>
         </is>
